--- a/biology/Médecine/1571_en_santé_et_médecine/1571_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1571_en_santé_et_médecine/1571_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1571_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1571_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1571 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1571_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1571_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jean Héroard s'inscrit, à l'âge de vingt ans, à l'université de médecine de Montpellier[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jean Héroard s'inscrit, à l'âge de vingt ans, à l'université de médecine de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1571_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1571_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Andrea Bacci : De thermis, traité sur l'histoire et sur la qualité thérapeutique des eaux thermales, publié à Venise, chez Vincent Valgrise[2].
-Jean Fernel : Therapeutices universalis libri septem, posthume[3].
-Peder Sørensen : Idea medicinæ philosophicæ, fundamenta continens totius doctrinæ Paracelsicæ, Hippocraticæ, et Galenicæ, à Bâle, chez Heinrich Petri[4].
-Mathias de l'Obel et Pierre Pena publient leur Stirpium adversaria nova sur les presses de Thomas Purfoot (en) à Londres[5],[6].
-1571-1574 : Thomas Erastus fait paraître à Bâle, chez Pierre Perna, les quatre volumes de ses Disputationes de medicina nova Philippi Parcelsi, virulente dénonciation du paracelsisme[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Andrea Bacci : De thermis, traité sur l'histoire et sur la qualité thérapeutique des eaux thermales, publié à Venise, chez Vincent Valgrise.
+Jean Fernel : Therapeutices universalis libri septem, posthume.
+Peder Sørensen : Idea medicinæ philosophicæ, fundamenta continens totius doctrinæ Paracelsicæ, Hippocraticæ, et Galenicæ, à Bâle, chez Heinrich Petri.
+Mathias de l'Obel et Pierre Pena publient leur Stirpium adversaria nova sur les presses de Thomas Purfoot (en) à Londres,.
+1571-1574 : Thomas Erastus fait paraître à Bâle, chez Pierre Perna, les quatre volumes de ses Disputationes de medicina nova Philippi Parcelsi, virulente dénonciation du paracelsisme.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1571_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1571_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>28 octobre : Girolamo Marciano (it) (mort en 1628), médecin et écrivain italien[8],[9].
-18 novembre : Hippolytus Guarinonius (en) (mort en 1654), médecin autrichien[10],[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28 octobre : Girolamo Marciano (it) (mort en 1628), médecin et écrivain italien,.
+18 novembre : Hippolytus Guarinonius (en) (mort en 1654), médecin autrichien,.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1571_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1571_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>24 mars : Bartolomeo Maranta (né vers 1500), médecin et botaniste italien[12],[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>24 mars : Bartolomeo Maranta (né vers 1500), médecin et botaniste italien,.</t>
         </is>
       </c>
     </row>
